--- a/inputs/jason_template.xlsx
+++ b/inputs/jason_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="460" windowWidth="12540" windowHeight="9880" tabRatio="884"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="23040" windowHeight="16120" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="SFR ANALYSIS" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
   <si>
     <t>Holding Costs</t>
   </si>
@@ -236,9 +236,6 @@
     <t>DATE:</t>
   </si>
   <si>
-    <t>123 Main St, Anywhere 95111</t>
-  </si>
-  <si>
     <t>MILES FROM SUBJECT</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
   </si>
   <si>
     <t>PROPERTY DETAILS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARV  </t>
   </si>
   <si>
     <t>Financing Costs (See Schedule)</t>
@@ -491,9 +485,6 @@
     <t>TYPE</t>
   </si>
   <si>
-    <t>MLS</t>
-  </si>
-  <si>
     <t>Price Range (2 yrs)</t>
   </si>
   <si>
@@ -535,9 +526,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="182" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="59" x14ac:knownFonts="1">
     <font>
@@ -2274,13 +2265,13 @@
     <xf numFmtId="1" fontId="21" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="5" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="19" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2295,121 +2286,121 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="21" fillId="7" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="19" fillId="7" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="34" fillId="7" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="5" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="19" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="34" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="7" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="7" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="7" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="20" fillId="7" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="5" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="21" fillId="7" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="7" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="7" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="19" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="19" fillId="7" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="5" borderId="65" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="19" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="7" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="65" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="5" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="19" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="25" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="26" fillId="7" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="29" fillId="0" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="11" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="7" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="11" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="13" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="7" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="7" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="11" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="7" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="11" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="13" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="7" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="19" fillId="7" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="7" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="35" fillId="7" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="35" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="35" fillId="7" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2418,7 +2409,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="32" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="32" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2457,16 +2448,16 @@
     <xf numFmtId="0" fontId="36" fillId="7" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="29" fillId="12" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="29" fillId="12" borderId="41" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="29" fillId="7" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="29" fillId="7" borderId="41" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="12" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="12" borderId="41" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="7" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="29" fillId="7" borderId="41" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2565,10 +2556,10 @@
     <xf numFmtId="0" fontId="40" fillId="11" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="40" fillId="11" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="40" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="40" fillId="11" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2586,10 +2577,10 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="41" fillId="14" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="41" fillId="14" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="41" fillId="14" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="41" fillId="14" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="29" fillId="12" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2667,13 +2658,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="43" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="7" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="43" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="44" fillId="7" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="45" fillId="7" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="45" fillId="7" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2682,7 +2673,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="46" fillId="7" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="46" fillId="7" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2716,7 +2707,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2735,10 +2726,10 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="20" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="19" fillId="7" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="7" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2786,19 +2777,19 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="33" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="29" fillId="12" borderId="57" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="12" borderId="57" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="29" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="5" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="48" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="48" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="32" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2807,94 +2798,94 @@
     <xf numFmtId="1" fontId="23" fillId="7" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="25" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="25" fillId="7" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="25" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="7" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="45" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="7" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="46" fillId="7" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="49" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="50" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="46" fillId="7" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="49" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="49" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="47" fillId="0" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="49" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="26" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="22" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="22" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="45" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="52" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="58" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2912,13 +2903,13 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="52" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2933,31 +2924,16 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="19" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="8" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="20" fillId="8" borderId="50" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="8" borderId="50" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="29" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2979,10 +2955,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="5" borderId="47" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="5" borderId="60" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="47" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="60" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2994,6 +2970,57 @@
     <xf numFmtId="0" fontId="42" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="56" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="56" fillId="8" borderId="31" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="56" fillId="8" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3012,18 +3039,6 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="7" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3040,30 +3055,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="56" fillId="8" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="56" fillId="8" borderId="31" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="56" fillId="8" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3080,7 +3071,67 @@
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -4128,7 +4179,7 @@
   <dimension ref="A1:L217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -4153,11 +4204,11 @@
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="373" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="373"/>
-      <c r="C2" s="373"/>
+      <c r="A2" s="368" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -4167,9 +4218,9 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="373"/>
-      <c r="B3" s="373"/>
-      <c r="C3" s="373"/>
+      <c r="A3" s="368"/>
+      <c r="B3" s="368"/>
+      <c r="C3" s="368"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
@@ -4189,7 +4240,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="82"/>
       <c r="C5" s="42"/>
@@ -4202,8 +4253,8 @@
       <c r="K5"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E6" s="378"/>
-      <c r="F6" s="378"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -4211,11 +4262,11 @@
       <c r="K6"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="379" t="s">
+      <c r="A7" s="374" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="378"/>
-      <c r="F7" s="378"/>
+      <c r="E7" s="373"/>
+      <c r="F7" s="373"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -4223,7 +4274,7 @@
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="379"/>
+      <c r="A8" s="374"/>
       <c r="D8" s="42"/>
       <c r="E8"/>
       <c r="F8"/>
@@ -4235,7 +4286,7 @@
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="260" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
@@ -4249,10 +4300,10 @@
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="264" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="272" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="273"/>
       <c r="E10"/>
@@ -4265,7 +4316,7 @@
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="265" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="153">
         <v>350000</v>
@@ -4285,10 +4336,10 @@
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="265" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="267" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" s="304"/>
       <c r="E12"/>
@@ -4301,10 +4352,10 @@
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="305" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" s="115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="306"/>
       <c r="E13"/>
@@ -4317,7 +4368,7 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="305" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="74">
         <v>3</v>
@@ -4333,7 +4384,7 @@
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="305" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="74">
         <v>2</v>
@@ -4351,10 +4402,10 @@
       <c r="A16" s="266" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="380">
+      <c r="B16" s="375">
         <v>42375</v>
       </c>
-      <c r="C16" s="381"/>
+      <c r="C16" s="376"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -4373,7 +4424,7 @@
       <c r="K17"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="371" t="s">
+      <c r="A18" s="383" t="s">
         <v>35</v>
       </c>
       <c r="E18"/>
@@ -4385,7 +4436,7 @@
       <c r="K18"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="372"/>
+      <c r="A19" s="384"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
@@ -4396,7 +4447,7 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="301" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="28"/>
       <c r="E20"/>
@@ -4422,7 +4473,7 @@
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="34">
         <v>1956</v>
@@ -4437,7 +4488,7 @@
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="35">
         <v>6305</v>
@@ -4452,7 +4503,7 @@
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="36">
         <v>1970</v>
@@ -4526,8 +4577,8 @@
         <f>(B22*B27)+B22</f>
         <v>2249.4</v>
       </c>
-      <c r="E29" s="378"/>
-      <c r="F29" s="378"/>
+      <c r="E29" s="373"/>
+      <c r="F29" s="373"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -4635,19 +4686,19 @@
       <c r="L36" s="43"/>
     </row>
     <row r="37" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="368" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="369"/>
-      <c r="C37" s="369"/>
-      <c r="D37" s="369"/>
-      <c r="E37" s="369"/>
-      <c r="F37" s="369"/>
-      <c r="G37" s="369"/>
-      <c r="H37" s="369"/>
-      <c r="I37" s="369"/>
-      <c r="J37" s="369"/>
-      <c r="K37" s="370"/>
+      <c r="A37" s="380" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="381"/>
+      <c r="C37" s="381"/>
+      <c r="D37" s="381"/>
+      <c r="E37" s="381"/>
+      <c r="F37" s="381"/>
+      <c r="G37" s="381"/>
+      <c r="H37" s="381"/>
+      <c r="I37" s="381"/>
+      <c r="J37" s="381"/>
+      <c r="K37" s="382"/>
       <c r="L37" s="43"/>
     </row>
     <row r="38" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4676,55 +4727,39 @@
         <v>28</v>
       </c>
       <c r="I38" s="93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J38" s="94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K38" s="353" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L38" s="43"/>
     </row>
     <row r="39" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="160">
-        <v>265000</v>
-      </c>
-      <c r="C39" s="141">
-        <v>1991</v>
-      </c>
-      <c r="D39" s="288">
+        <v>67</v>
+      </c>
+      <c r="B39" s="160"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="288" t="e">
         <f>B39/C39</f>
-        <v>133.09894525364138</v>
-      </c>
-      <c r="E39" s="79">
-        <v>5900</v>
-      </c>
-      <c r="F39" s="74">
-        <v>2000</v>
-      </c>
-      <c r="G39" s="73">
-        <v>30</v>
-      </c>
-      <c r="H39" s="90">
-        <v>36526</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="79"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="90"/>
       <c r="I39" s="309">
-        <v>0.5</v>
-      </c>
-      <c r="J39" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="K39" s="354" t="s">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
     </row>
     <row r="40" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="160"/>
       <c r="C40" s="141"/>
@@ -4737,7 +4772,7 @@
       <c r="G40" s="73"/>
       <c r="H40" s="90"/>
       <c r="I40" s="309">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J40" s="73"/>
       <c r="K40" s="354"/>
@@ -4745,7 +4780,7 @@
     </row>
     <row r="41" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="160"/>
       <c r="C41" s="141"/>
@@ -4758,7 +4793,7 @@
       <c r="G41" s="73"/>
       <c r="H41" s="90"/>
       <c r="I41" s="309">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J41" s="73"/>
       <c r="K41" s="354"/>
@@ -4766,7 +4801,7 @@
     </row>
     <row r="42" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" s="160"/>
       <c r="C42" s="141"/>
@@ -4787,7 +4822,7 @@
     </row>
     <row r="43" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="160"/>
       <c r="C43" s="141"/>
@@ -4808,7 +4843,7 @@
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="160"/>
       <c r="C44" s="141"/>
@@ -4829,7 +4864,7 @@
     </row>
     <row r="45" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="160"/>
       <c r="C45" s="141"/>
@@ -4850,7 +4885,7 @@
     </row>
     <row r="46" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="160"/>
       <c r="C46" s="141"/>
@@ -4871,7 +4906,7 @@
     </row>
     <row r="47" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" s="160"/>
       <c r="C47" s="141"/>
@@ -4892,7 +4927,7 @@
     </row>
     <row r="48" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48" s="160"/>
       <c r="C48" s="141"/>
@@ -4913,7 +4948,7 @@
     </row>
     <row r="49" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="160"/>
       <c r="C49" s="141"/>
@@ -4941,7 +4976,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E50" s="75" t="s">
         <v>55</v>
@@ -4960,29 +4995,29 @@
     </row>
     <row r="51" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="117"/>
-      <c r="B51" s="161">
+      <c r="B51" s="161" t="e">
         <f>AVERAGE(B39:B49)</f>
-        <v>265000</v>
-      </c>
-      <c r="C51" s="142">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51" s="142" t="e">
         <f>AVERAGE(C39:C49)</f>
-        <v>1991</v>
-      </c>
-      <c r="D51" s="289">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D51" s="289" t="e">
         <f>B51/C51</f>
-        <v>133.09894525364138</v>
-      </c>
-      <c r="E51" s="89">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="89" t="e">
         <f>AVERAGE(E39:E49)</f>
-        <v>5900</v>
-      </c>
-      <c r="F51" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="75" t="e">
         <f>AVERAGE(F39:F49)</f>
-        <v>2000</v>
-      </c>
-      <c r="G51" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="75" t="e">
         <f>AVERAGE(G39:G49)</f>
-        <v>30</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
@@ -5005,16 +5040,16 @@
     </row>
     <row r="53" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="261" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="262"/>
       <c r="C53" s="66"/>
-      <c r="D53" s="382" t="s">
-        <v>146</v>
-      </c>
-      <c r="E53" s="383"/>
-      <c r="F53" s="383"/>
-      <c r="G53" s="384"/>
+      <c r="D53" s="377" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="378"/>
+      <c r="F53" s="378"/>
+      <c r="G53" s="379"/>
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
       <c r="J53" s="30"/>
@@ -5024,19 +5059,19 @@
       <c r="A54" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="159">
+      <c r="B54" s="159" t="e">
         <f>B57*B22</f>
-        <v>260341.53691612254</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E54" s="74">
         <v>5500</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G54" s="74">
         <v>3</v>
@@ -5048,21 +5083,21 @@
     </row>
     <row r="55" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="162">
+        <v>105</v>
+      </c>
+      <c r="B55" s="162" t="e">
         <f>C51</f>
-        <v>1991</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55" s="74">
         <v>1150</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G55" s="74">
         <v>2</v>
@@ -5074,21 +5109,21 @@
     </row>
     <row r="56" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="299">
+        <v>106</v>
+      </c>
+      <c r="B56" s="299" t="e">
         <f>B51</f>
-        <v>265000</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C56" s="66"/>
       <c r="D56" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="E56" s="74" t="s">
-        <v>141</v>
-      </c>
       <c r="F56" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G56" s="74">
         <v>1937</v>
@@ -5100,21 +5135,21 @@
     </row>
     <row r="57" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="184" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="185">
+        <v>83</v>
+      </c>
+      <c r="B57" s="185" t="e">
         <f>D51</f>
-        <v>133.09894525364138</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C57" s="67"/>
       <c r="D57" s="300" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E57" s="317">
         <v>450000</v>
       </c>
       <c r="F57" s="300" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G57" s="118">
         <v>79</v>
@@ -5129,16 +5164,16 @@
       <c r="D58" s="54"/>
     </row>
     <row r="59" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="371" t="s">
+      <c r="A59" s="383" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="372"/>
+      <c r="A60" s="384"/>
     </row>
     <row r="61" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="301" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B61" s="28"/>
     </row>
@@ -5170,13 +5205,13 @@
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B65" s="86"/>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="301" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="302"/>
     </row>
@@ -5226,18 +5261,18 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="371" t="s">
+      <c r="A71" s="383" t="s">
         <v>37</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71"/>
-      <c r="H71" s="378"/>
-      <c r="I71" s="378"/>
+      <c r="H71" s="373"/>
+      <c r="I71" s="373"/>
       <c r="J71"/>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="372"/>
+      <c r="A72" s="384"/>
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72"/>
@@ -5247,7 +5282,7 @@
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="360" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B73" s="362"/>
       <c r="C73" s="362"/>
@@ -5263,15 +5298,15 @@
       <c r="A74" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="150">
+      <c r="B74" s="150" t="e">
         <f>B54</f>
-        <v>260341.53691612254</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C74" s="146" t="s">
         <v>31</v>
       </c>
       <c r="D74" s="158" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
@@ -5292,9 +5327,9 @@
         <f>B75</f>
         <v>88020</v>
       </c>
-      <c r="D75" s="145">
+      <c r="D75" s="145" t="e">
         <f>B74-B75</f>
-        <v>172321.53691612254</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E75"/>
       <c r="F75"/>
@@ -5305,18 +5340,18 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B76" s="11">
         <v>0.06</v>
       </c>
-      <c r="C76" s="151">
+      <c r="C76" s="151" t="e">
         <f xml:space="preserve"> B76*B74</f>
-        <v>15620.492214967351</v>
-      </c>
-      <c r="D76" s="145">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D76" s="145" t="e">
         <f t="shared" ref="D76:D81" si="1">D75-C76</f>
-        <v>156701.04470115519</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
@@ -5332,13 +5367,13 @@
       <c r="B77" s="11">
         <v>0.03</v>
       </c>
-      <c r="C77" s="151">
+      <c r="C77" s="151" t="e">
         <f>B77*B74</f>
-        <v>7810.2461074836756</v>
-      </c>
-      <c r="D77" s="145">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D77" s="145" t="e">
         <f t="shared" si="1"/>
-        <v>148890.79859367153</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
@@ -5354,13 +5389,13 @@
       <c r="B78" s="143">
         <v>0.03</v>
       </c>
-      <c r="C78" s="151">
+      <c r="C78" s="151" t="e">
         <f>B78*B74</f>
-        <v>7810.2461074836756</v>
-      </c>
-      <c r="D78" s="145">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D78" s="145" t="e">
         <f t="shared" si="1"/>
-        <v>141080.55248618784</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
@@ -5376,13 +5411,13 @@
       <c r="B79" s="11">
         <v>0.1</v>
       </c>
-      <c r="C79" s="151">
+      <c r="C79" s="151" t="e">
         <f>B79*B74</f>
-        <v>26034.153691612257</v>
-      </c>
-      <c r="D79" s="145">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D79" s="145" t="e">
         <f t="shared" si="1"/>
-        <v>115046.39879457558</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E79"/>
       <c r="F79"/>
@@ -5393,7 +5428,7 @@
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="363" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B80" s="153">
         <v>0</v>
@@ -5402,9 +5437,9 @@
         <f>B80</f>
         <v>0</v>
       </c>
-      <c r="D80" s="364">
+      <c r="D80" s="364" t="e">
         <f t="shared" si="1"/>
-        <v>115046.39879457558</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E80"/>
       <c r="F80"/>
@@ -5424,9 +5459,9 @@
         <f>B81</f>
         <v>15000</v>
       </c>
-      <c r="D81" s="157">
+      <c r="D81" s="157" t="e">
         <f t="shared" si="1"/>
-        <v>100046.39879457558</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
@@ -5439,13 +5474,13 @@
       <c r="A82" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B82" s="274">
+      <c r="B82" s="274" t="e">
         <f>B74-(C75+C76+C77+C78+C79+C81+C80)</f>
-        <v>100046.39879457559</v>
-      </c>
-      <c r="C82" s="152">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C82" s="152" t="e">
         <f>SUM(C75:C81)</f>
-        <v>160295.13812154694</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D82" s="149"/>
       <c r="E82"/>
@@ -5459,12 +5494,12 @@
       <c r="A83" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="154">
+      <c r="B83" s="154" t="e">
         <f>C79</f>
-        <v>26034.153691612257</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C83" s="263" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D83" s="31"/>
       <c r="E83"/>
@@ -5476,11 +5511,11 @@
     </row>
     <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B84" s="155">
+        <v>118</v>
+      </c>
+      <c r="B84" s="155" t="e">
         <f>C75+C76+C77+C78+C81+C80</f>
-        <v>134260.9844299347</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C84" s="147" t="s">
         <v>10</v>
@@ -5547,16 +5582,16 @@
       <c r="J88"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="371" t="s">
+      <c r="A89" s="383" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="372"/>
+      <c r="A90" s="384"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="301" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="303"/>
       <c r="C91" s="303"/>
@@ -5578,16 +5613,16 @@
         <v>12</v>
       </c>
       <c r="E92" s="277" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F92" s="278" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A93" s="168">
+      <c r="A93" s="168" t="e">
         <f>B74</f>
-        <v>260341.53691612254</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="B93" s="166">
         <f>B64</f>
@@ -5599,13 +5634,13 @@
       <c r="D93" s="9">
         <v>0.75</v>
       </c>
-      <c r="E93" s="275">
+      <c r="E93" s="275" t="e">
         <f>(A93*D93)-B63-C93</f>
-        <v>92236.152687091904</v>
-      </c>
-      <c r="F93" s="280">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F93" s="280" t="e">
         <f>E93/B22</f>
-        <v>47.155497283789316</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5613,17 +5648,17 @@
         <v>33</v>
       </c>
       <c r="B94" s="76"/>
-      <c r="C94" s="376" t="s">
-        <v>70</v>
-      </c>
-      <c r="D94" s="377"/>
-      <c r="E94" s="276">
+      <c r="C94" s="371" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" s="372"/>
+      <c r="E94" s="276" t="e">
         <f>(E93+E95)/2</f>
-        <v>87624.345052737306</v>
-      </c>
-      <c r="F94" s="281">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F94" s="281" t="e">
         <f>E94/B22</f>
-        <v>44.79772241959985</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5631,27 +5666,27 @@
         <v>39</v>
       </c>
       <c r="B95" s="77"/>
-      <c r="C95" s="374" t="s">
+      <c r="C95" s="369" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="375"/>
-      <c r="E95" s="279">
+      <c r="D95" s="370"/>
+      <c r="E95" s="279" t="e">
         <f>E93*0.9</f>
-        <v>83012.537418382723</v>
-      </c>
-      <c r="F95" s="282">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F95" s="282" t="e">
         <f>E95/B22</f>
-        <v>42.439947555410392</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A97" s="371" t="s">
+      <c r="A97" s="383" t="s">
         <v>40</v>
       </c>
       <c r="B97" s="13"/>
     </row>
     <row r="98" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="372"/>
+      <c r="A98" s="384"/>
       <c r="B98" s="81"/>
     </row>
     <row r="99" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5660,7 +5695,7 @@
       </c>
       <c r="B99" s="287"/>
       <c r="C99" s="295" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
@@ -5669,13 +5704,13 @@
       <c r="A100" s="297" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="298">
+      <c r="B100" s="298" t="e">
         <f>B74</f>
-        <v>260341.53691612254</v>
-      </c>
-      <c r="C100" s="328">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C100" s="328" t="e">
         <f>B100/B22</f>
-        <v>133.09894525364138</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
@@ -5685,13 +5720,13 @@
       <c r="A101" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B101" s="169">
+      <c r="B101" s="169" t="e">
         <f>B84</f>
-        <v>134260.9844299347</v>
-      </c>
-      <c r="C101" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C101" s="327" t="e">
         <f>B101/B22</f>
-        <v>68.640585086878687</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
@@ -5702,13 +5737,13 @@
       <c r="A102" s="323" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="324">
+      <c r="B102" s="324" t="e">
         <f>B82</f>
-        <v>100046.39879457559</v>
-      </c>
-      <c r="C102" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C102" s="327" t="e">
         <f>B102/B22</f>
-        <v>51.148465641398566</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
@@ -5719,13 +5754,13 @@
       <c r="A103" s="325" t="s">
         <v>62</v>
       </c>
-      <c r="B103" s="326">
+      <c r="B103" s="326" t="e">
         <f>E93</f>
-        <v>92236.152687091904</v>
-      </c>
-      <c r="C103" s="327">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C103" s="327" t="e">
         <f>B103/B22</f>
-        <v>47.155497283789316</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
@@ -5745,13 +5780,13 @@
       <c r="A105" s="329" t="s">
         <v>54</v>
       </c>
-      <c r="B105" s="330">
+      <c r="B105" s="330" t="e">
         <f>B82</f>
-        <v>100046.39879457559</v>
-      </c>
-      <c r="C105" s="346">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C105" s="346" t="e">
         <f>B105/B22</f>
-        <v>51.148465641398566</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D105" s="290"/>
       <c r="E105" s="291"/>
@@ -5762,13 +5797,13 @@
       <c r="A106" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B106" s="171">
+      <c r="B106" s="171" t="e">
         <f>B105*0.9</f>
-        <v>90041.758915118044</v>
-      </c>
-      <c r="C106" s="347">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C106" s="347" t="e">
         <f>B106/B22</f>
-        <v>46.033619077258713</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
@@ -5777,13 +5812,13 @@
       <c r="A107" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B107" s="171">
+      <c r="B107" s="171" t="e">
         <f>B100-(B106+B101)</f>
-        <v>36038.793571069778</v>
-      </c>
-      <c r="C107" s="347">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C107" s="347" t="e">
         <f>B107/B22</f>
-        <v>18.424741089503975</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
@@ -5794,13 +5829,13 @@
       <c r="A108" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="B108" s="171">
+      <c r="B108" s="171" t="e">
         <f>B100-(B105+B101)</f>
-        <v>26034.153691612242</v>
-      </c>
-      <c r="C108" s="347">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C108" s="347" t="e">
         <f>B108/B22</f>
-        <v>13.309894525364133</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
@@ -5818,13 +5853,13 @@
       <c r="A110" s="331" t="s">
         <v>62</v>
       </c>
-      <c r="B110" s="332">
+      <c r="B110" s="332" t="e">
         <f>E93</f>
-        <v>92236.152687091904</v>
-      </c>
-      <c r="C110" s="349">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C110" s="349" t="e">
         <f>B110/B22</f>
-        <v>47.155497283789316</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D110" s="23"/>
       <c r="E110" s="23"/>
@@ -5835,13 +5870,13 @@
       <c r="A111" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B111" s="172">
+      <c r="B111" s="172" t="e">
         <f>E95</f>
-        <v>83012.537418382723</v>
-      </c>
-      <c r="C111" s="350">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C111" s="350" t="e">
         <f>B111/B22</f>
-        <v>42.439947555410392</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D111" s="23"/>
       <c r="E111" s="23"/>
@@ -5852,13 +5887,13 @@
       <c r="A112" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B112" s="172">
+      <c r="B112" s="172" t="e">
         <f>B100-B110-B101</f>
-        <v>33844.399799095932</v>
-      </c>
-      <c r="C112" s="350">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C112" s="350" t="e">
         <f>B112/B22</f>
-        <v>17.302862882973379</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
@@ -5904,16 +5939,16 @@
       <c r="A116" s="343" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="344">
+      <c r="B116" s="344" t="e">
         <f>B100</f>
-        <v>260341.53691612254</v>
-      </c>
-      <c r="C116" s="345">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C116" s="345" t="e">
         <f>C100</f>
-        <v>133.09894525364138</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D116" s="356" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E116" s="23"/>
       <c r="G116" s="30"/>
@@ -5921,19 +5956,19 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="335" t="s">
-        <v>131</v>
-      </c>
-      <c r="B117" s="336">
+        <v>129</v>
+      </c>
+      <c r="B117" s="336" t="e">
         <f>B102+B101</f>
-        <v>234307.3832245103</v>
-      </c>
-      <c r="C117" s="337">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C117" s="337" t="e">
         <f>C102+C101</f>
-        <v>119.78905072827726</v>
-      </c>
-      <c r="D117" s="357">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D117" s="357" t="e">
         <f>B116-B117</f>
-        <v>26034.153691612242</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E117" s="23"/>
       <c r="G117" s="30"/>
@@ -5941,19 +5976,19 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="338" t="s">
-        <v>132</v>
-      </c>
-      <c r="B118" s="333">
+        <v>130</v>
+      </c>
+      <c r="B118" s="333" t="e">
         <f>B103+B101</f>
-        <v>226497.13711702661</v>
-      </c>
-      <c r="C118" s="339">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C118" s="339" t="e">
         <f>C103+C101</f>
-        <v>115.796082370668</v>
-      </c>
-      <c r="D118" s="358">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D118" s="358" t="e">
         <f>B116-B118</f>
-        <v>33844.399799095932</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E118" s="23"/>
       <c r="G118" s="30"/>
@@ -5961,26 +5996,26 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="296" t="s">
-        <v>133</v>
-      </c>
-      <c r="B119" s="340">
+        <v>131</v>
+      </c>
+      <c r="B119" s="340" t="e">
         <f>E95+B101</f>
-        <v>217273.52184831741</v>
-      </c>
-      <c r="C119" s="334">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C119" s="334" t="e">
         <f>F95+C101</f>
-        <v>111.08053264228909</v>
-      </c>
-      <c r="D119" s="359">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D119" s="359" t="e">
         <f>B116-B119</f>
-        <v>43068.015067805129</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E119" s="23"/>
       <c r="H119" s="30"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="251" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120" s="252"/>
       <c r="C120" s="253"/>
@@ -6282,6 +6317,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A97:A98"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="C94:D94"/>
@@ -6296,29 +6332,28 @@
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A97:A98"/>
   </mergeCells>
   <conditionalFormatting sqref="C39:C49">
-    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>$B$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>$B$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E49">
-    <cfRule type="cellIs" dxfId="3" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>$B$31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>$B$32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F49">
-    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>$B$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="24" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>$B$35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6352,34 +6387,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="385" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="387"/>
+      <c r="A1" s="397" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="398"/>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
+      <c r="F1" s="399"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="388"/>
-      <c r="B2" s="389"/>
-      <c r="C2" s="389"/>
-      <c r="D2" s="389"/>
-      <c r="E2" s="389"/>
-      <c r="F2" s="390"/>
+      <c r="A2" s="400"/>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="402"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="218" t="str">
         <f>'SFR ANALYSIS'!A10:B10</f>
         <v xml:space="preserve">ADDRESS:  </v>
       </c>
-      <c r="B3" s="399" t="str">
+      <c r="B3" s="407" t="str">
         <f>'SFR ANALYSIS'!B10:C10</f>
         <v>123 Main St, Anywhere CA 91234</v>
       </c>
-      <c r="C3" s="399"/>
-      <c r="D3" s="400"/>
+      <c r="C3" s="407"/>
+      <c r="D3" s="408"/>
       <c r="E3" s="202" t="s">
         <v>53</v>
       </c>
@@ -6389,20 +6424,20 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="406" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="407"/>
-      <c r="C4" s="407"/>
-      <c r="D4" s="407"/>
-      <c r="E4" s="407"/>
-      <c r="F4" s="408"/>
+      <c r="A4" s="390" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="391"/>
+      <c r="C4" s="391"/>
+      <c r="D4" s="391"/>
+      <c r="E4" s="391"/>
+      <c r="F4" s="392"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="397" t="s">
+      <c r="A5" s="405" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="398"/>
+      <c r="B5" s="406"/>
       <c r="C5" s="203" t="s">
         <v>20</v>
       </c>
@@ -6413,40 +6448,40 @@
         <v>21</v>
       </c>
       <c r="F5" s="219" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="393" t="str">
         <f>'SFR ANALYSIS'!A39</f>
-        <v>123 Main St, Anywhere 95111</v>
+        <v>N/A</v>
       </c>
       <c r="B6" s="394"/>
       <c r="C6" s="204">
         <f>'SFR ANALYSIS'!B39</f>
-        <v>265000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="249">
         <f>'SFR ANALYSIS'!C39</f>
-        <v>1991</v>
-      </c>
-      <c r="E6" s="205">
+        <v>0</v>
+      </c>
+      <c r="E6" s="205" t="e">
         <f>'SFR ANALYSIS'!D39</f>
-        <v>133.09894525364138</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="220">
         <f>'SFR ANALYSIS'!I39</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="55"/>
       <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="391" t="str">
+      <c r="A7" s="395" t="str">
         <f>'SFR ANALYSIS'!A40</f>
         <v>N/A</v>
       </c>
-      <c r="B7" s="392"/>
+      <c r="B7" s="396"/>
       <c r="C7" s="206">
         <f>'SFR ANALYSIS'!B40</f>
         <v>0</v>
@@ -6461,7 +6496,7 @@
       </c>
       <c r="F7" s="221">
         <f>'SFR ANALYSIS'!I40</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G7" s="61"/>
       <c r="H7" s="61"/>
@@ -6486,17 +6521,17 @@
       </c>
       <c r="F8" s="222">
         <f>'SFR ANALYSIS'!I41</f>
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G8" s="61"/>
       <c r="H8" s="61"/>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="391" t="str">
+      <c r="A9" s="395" t="str">
         <f>'SFR ANALYSIS'!A42</f>
         <v>N/A</v>
       </c>
-      <c r="B9" s="392"/>
+      <c r="B9" s="396"/>
       <c r="C9" s="206">
         <f>'SFR ANALYSIS'!B42</f>
         <v>0</v>
@@ -6542,11 +6577,11 @@
       <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="391" t="str">
+      <c r="A11" s="395" t="str">
         <f>'SFR ANALYSIS'!A44</f>
         <v>N/A</v>
       </c>
-      <c r="B11" s="392"/>
+      <c r="B11" s="396"/>
       <c r="C11" s="206">
         <f>'SFR ANALYSIS'!B44</f>
         <v>0</v>
@@ -6592,11 +6627,11 @@
       <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="391" t="str">
+      <c r="A13" s="395" t="str">
         <f>'SFR ANALYSIS'!A46</f>
         <v>N/A</v>
       </c>
-      <c r="B13" s="392"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="206">
         <f>'SFR ANALYSIS'!B46</f>
         <v>0</v>
@@ -6644,11 +6679,11 @@
       <c r="M14"/>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="391" t="str">
+      <c r="A15" s="395" t="str">
         <f>'SFR ANALYSIS'!A48</f>
         <v>N/A</v>
       </c>
-      <c r="B15" s="392"/>
+      <c r="B15" s="396"/>
       <c r="C15" s="206">
         <f>'SFR ANALYSIS'!B48</f>
         <v>0</v>
@@ -6700,8 +6735,8 @@
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="395"/>
-      <c r="B17" s="396"/>
+      <c r="A17" s="403"/>
+      <c r="B17" s="404"/>
       <c r="C17" s="208" t="s">
         <v>26</v>
       </c>
@@ -6719,21 +6754,21 @@
       <c r="M17"/>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" s="401" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="402"/>
-      <c r="C18" s="247">
+      <c r="A18" s="385" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="386"/>
+      <c r="C18" s="247" t="e">
         <f>'SFR ANALYSIS'!B51</f>
-        <v>265000</v>
-      </c>
-      <c r="D18" s="308">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="308" t="e">
         <f>'SFR ANALYSIS'!C51</f>
-        <v>1991</v>
-      </c>
-      <c r="E18" s="248">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="248" t="e">
         <f>'SFR ANALYSIS'!D51</f>
-        <v>133.09894525364138</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F18" s="225"/>
       <c r="G18" s="61"/>
@@ -6757,7 +6792,7 @@
     </row>
     <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="233" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="210"/>
       <c r="C20" s="210"/>
@@ -6775,13 +6810,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="211"/>
-      <c r="C21" s="315">
+      <c r="C21" s="315" t="e">
         <f>'SFR ANALYSIS'!B54</f>
-        <v>260341.53691612254</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D21" s="316"/>
       <c r="E21" s="128" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="129">
         <f>'SFR ANALYSIS'!B23</f>
@@ -6792,7 +6827,7 @@
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="229" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B22" s="212"/>
       <c r="C22" s="367">
@@ -6804,7 +6839,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="122" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="123">
         <f>'SFR ANALYSIS'!B24</f>
@@ -6815,7 +6850,7 @@
     </row>
     <row r="23" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="230" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="213"/>
       <c r="C23" s="214">
@@ -6824,11 +6859,11 @@
       </c>
       <c r="D23" s="215"/>
       <c r="E23" s="313" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="125">
+        <v>74</v>
+      </c>
+      <c r="F23" s="125" t="e">
         <f>'SFR ANALYSIS'!G51</f>
-        <v>30</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G23" s="61"/>
       <c r="H23" s="61"/>
@@ -6845,7 +6880,7 @@
     </row>
     <row r="25" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="233" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="210"/>
       <c r="C25" s="210"/>
@@ -6857,7 +6892,7 @@
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="127"/>
       <c r="C26" s="128">
@@ -6866,7 +6901,7 @@
       </c>
       <c r="D26" s="128"/>
       <c r="E26" s="128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="129">
         <f>'SFR ANALYSIS'!G54</f>
@@ -6877,7 +6912,7 @@
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="130" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="131"/>
       <c r="C27" s="121">
@@ -6886,7 +6921,7 @@
       </c>
       <c r="D27" s="121"/>
       <c r="E27" s="121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" s="355">
         <f>'SFR ANALYSIS'!G55</f>
@@ -6897,7 +6932,7 @@
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="132" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B28" s="133"/>
       <c r="C28" s="96" t="str">
@@ -6906,7 +6941,7 @@
       </c>
       <c r="D28" s="96"/>
       <c r="E28" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="97">
         <f>'SFR ANALYSIS'!G56</f>
@@ -6917,7 +6952,7 @@
     </row>
     <row r="29" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="134" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="135"/>
       <c r="C29" s="173">
@@ -6926,7 +6961,7 @@
       </c>
       <c r="D29" s="136"/>
       <c r="E29" s="136" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" s="124">
         <f>'SFR ANALYSIS'!G57</f>
@@ -6947,17 +6982,17 @@
     </row>
     <row r="31" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="193"/>
       <c r="C31" s="244" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="246" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F31" s="234"/>
       <c r="G31" s="61"/>
@@ -6965,7 +7000,7 @@
     </row>
     <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="102"/>
       <c r="C32" s="174">
@@ -6986,13 +7021,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="104"/>
-      <c r="C33" s="176">
+      <c r="C33" s="176" t="e">
         <f>'SFR ANALYSIS'!C76</f>
-        <v>15620.492214967351</v>
-      </c>
-      <c r="D33" s="179">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="179" t="e">
         <f>C33/C23</f>
-        <v>7.9859367152184824</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E33" s="105">
         <f>'SFR ANALYSIS'!B76</f>
@@ -7007,13 +7042,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="102"/>
-      <c r="C34" s="177">
+      <c r="C34" s="177" t="e">
         <f>'SFR ANALYSIS'!C77</f>
-        <v>7810.2461074836756</v>
-      </c>
-      <c r="D34" s="178">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="178" t="e">
         <f>C34/C23</f>
-        <v>3.9929683576092412</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E34" s="107">
         <f>'SFR ANALYSIS'!B77</f>
@@ -7028,13 +7063,13 @@
         <v>9</v>
       </c>
       <c r="B35" s="104"/>
-      <c r="C35" s="176">
+      <c r="C35" s="176" t="e">
         <f>'SFR ANALYSIS'!C78</f>
-        <v>7810.2461074836756</v>
-      </c>
-      <c r="D35" s="179">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="179" t="e">
         <f>C35/C23</f>
-        <v>3.9929683576092412</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E35" s="105">
         <f>'SFR ANALYSIS'!B78</f>
@@ -7064,16 +7099,16 @@
     </row>
     <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="238" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="239"/>
-      <c r="C37" s="240">
+      <c r="C37" s="240" t="e">
         <f>'SFR ANALYSIS'!B84</f>
-        <v>134260.9844299347</v>
-      </c>
-      <c r="D37" s="241">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="241" t="e">
         <f>SUM(D32:D36)</f>
-        <v>68.640585086878687</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E37" s="242"/>
       <c r="F37" s="243"/>
@@ -7099,13 +7134,13 @@
         <v>13</v>
       </c>
       <c r="D39" s="111" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="284" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G39" s="61"/>
       <c r="H39" s="61"/>
@@ -7115,9 +7150,9 @@
         <v>11</v>
       </c>
       <c r="B40" s="232"/>
-      <c r="C40" s="180">
+      <c r="C40" s="180" t="e">
         <f>'SFR ANALYSIS'!B100</f>
-        <v>260341.53691612254</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D40" s="181">
         <f>C22</f>
@@ -7130,16 +7165,16 @@
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="113" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="199"/>
-      <c r="C41" s="182">
+      <c r="C41" s="182" t="e">
         <f>'SFR ANALYSIS'!B101</f>
-        <v>134260.9844299347</v>
-      </c>
-      <c r="D41" s="183">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" s="183" t="e">
         <f>D37</f>
-        <v>68.640585086878687</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E41" s="195"/>
       <c r="F41" s="101"/>
@@ -7148,16 +7183,16 @@
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="137" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="200"/>
-      <c r="C42" s="180">
+      <c r="C42" s="180" t="e">
         <f>'SFR ANALYSIS'!B82</f>
-        <v>100046.39879457559</v>
-      </c>
-      <c r="D42" s="191">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" s="191" t="e">
         <f>C42/C23</f>
-        <v>51.148465641398566</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E42" s="198"/>
       <c r="F42" s="237"/>
@@ -7166,16 +7201,16 @@
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="186" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="189"/>
-      <c r="C43" s="187">
+      <c r="C43" s="187" t="e">
         <f>SUM(C41:C42)</f>
-        <v>234307.3832245103</v>
-      </c>
-      <c r="D43" s="188">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="188" t="e">
         <f>C43/C23</f>
-        <v>119.78905072827725</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E43" s="195"/>
       <c r="F43" s="101"/>
@@ -7193,19 +7228,19 @@
       <c r="H44" s="61"/>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A45" s="403" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" s="404"/>
-      <c r="C45" s="404"/>
-      <c r="D45" s="405"/>
+      <c r="A45" s="387" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="388"/>
+      <c r="C45" s="388"/>
+      <c r="D45" s="389"/>
       <c r="E45" s="365">
         <f>'SFR ANALYSIS'!B79</f>
         <v>0.1</v>
       </c>
-      <c r="F45" s="366">
+      <c r="F45" s="366" t="e">
         <f>'SFR ANALYSIS'!C79</f>
-        <v>26034.153691612257</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G45" s="61"/>
       <c r="H45" s="61"/>
@@ -7250,14 +7285,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -7268,6 +7295,14 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs/jason_template.xlsx
+++ b/inputs/jason_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="23040" windowHeight="16120" tabRatio="884"/>
+    <workbookView xWindow="1640" yWindow="460" windowWidth="23040" windowHeight="16120" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="SFR ANALYSIS" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="145">
   <si>
     <t>Holding Costs</t>
   </si>
@@ -492,9 +492,6 @@
   </si>
   <si>
     <t>Median Year Blt.</t>
-  </si>
-  <si>
-    <t>365K - 600K</t>
   </si>
   <si>
     <t>Price Range (2 yrs.) in K</t>
@@ -1953,9 +1950,6 @@
     <xf numFmtId="164" fontId="19" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="19" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2936,6 +2930,12 @@
     <xf numFmtId="1" fontId="29" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2979,10 +2979,52 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="25" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="14" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3009,52 +3051,7 @@
     <xf numFmtId="0" fontId="36" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="25" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="7" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3071,67 +3068,7 @@
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -4178,8 +4115,8 @@
   </sheetPr>
   <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -4204,11 +4141,11 @@
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="368" t="s">
+      <c r="A2" s="369" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="368"/>
-      <c r="C2" s="368"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -4218,9 +4155,9 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="368"/>
-      <c r="B3" s="368"/>
-      <c r="C3" s="368"/>
+      <c r="A3" s="369"/>
+      <c r="B3" s="369"/>
+      <c r="C3" s="369"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
@@ -4239,11 +4176,11 @@
       <c r="K4"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="41"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
@@ -4253,8 +4190,8 @@
       <c r="K5"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -4262,11 +4199,11 @@
       <c r="K6"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="374" t="s">
+      <c r="A7" s="375" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="373"/>
-      <c r="F7" s="373"/>
+      <c r="E7" s="374"/>
+      <c r="F7" s="374"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -4274,8 +4211,8 @@
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="374"/>
-      <c r="D8" s="42"/>
+      <c r="A8" s="375"/>
+      <c r="D8" s="41"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
@@ -4285,8 +4222,8 @@
       <c r="K8"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="260" t="s">
-        <v>141</v>
+      <c r="A9" s="259" t="s">
+        <v>140</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
@@ -4299,13 +4236,13 @@
       <c r="K9"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="264" t="s">
+      <c r="A10" s="263" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="272" t="s">
+      <c r="B10" s="271" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="273"/>
+      <c r="C10" s="272"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -4315,17 +4252,17 @@
       <c r="K10"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="265" t="s">
+      <c r="A11" s="264" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="153">
+      <c r="B11" s="152">
         <v>350000</v>
       </c>
-      <c r="C11" s="322">
+      <c r="C11" s="321">
         <f>B11/B22</f>
         <v>178.93660531697341</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="41"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -4335,13 +4272,13 @@
       <c r="K11"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="265" t="s">
+      <c r="A12" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="267" t="s">
+      <c r="B12" s="266" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="304"/>
+      <c r="C12" s="303"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -4351,13 +4288,13 @@
       <c r="K12"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="305" t="s">
+      <c r="A13" s="304" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="306"/>
+      <c r="C13" s="305"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -4367,13 +4304,13 @@
       <c r="K13"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="305" t="s">
+      <c r="A14" s="304" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="74">
+      <c r="B14" s="73">
         <v>3</v>
       </c>
-      <c r="C14" s="306"/>
+      <c r="C14" s="305"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -4383,13 +4320,13 @@
       <c r="K14"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="305" t="s">
+      <c r="A15" s="304" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="74">
+      <c r="B15" s="73">
         <v>2</v>
       </c>
-      <c r="C15" s="307"/>
+      <c r="C15" s="306"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -4399,13 +4336,13 @@
       <c r="K15"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="266" t="s">
+      <c r="A16" s="265" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="375">
+      <c r="B16" s="376">
         <v>42375</v>
       </c>
-      <c r="C16" s="376"/>
+      <c r="C16" s="377"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -4424,7 +4361,7 @@
       <c r="K17"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="383" t="s">
+      <c r="A18" s="367" t="s">
         <v>35</v>
       </c>
       <c r="E18"/>
@@ -4436,7 +4373,7 @@
       <c r="K18"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="384"/>
+      <c r="A19" s="368"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
@@ -4446,7 +4383,7 @@
       <c r="K19"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="301" t="s">
+      <c r="A20" s="300" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="28"/>
@@ -4459,10 +4396,10 @@
       <c r="K20"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="268" t="s">
+      <c r="A21" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="269"/>
+      <c r="B21" s="268"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -4472,7 +4409,7 @@
       <c r="K21"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="43" t="s">
         <v>93</v>
       </c>
       <c r="B22" s="34">
@@ -4502,7 +4439,7 @@
       <c r="K23"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="44" t="s">
         <v>120</v>
       </c>
       <c r="B24" s="36">
@@ -4526,10 +4463,10 @@
       <c r="K25"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="270" t="s">
+      <c r="A26" s="269" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="271"/>
+      <c r="B26" s="270"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
@@ -4539,7 +4476,7 @@
       <c r="K26"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="45" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="37">
@@ -4557,7 +4494,7 @@
       <c r="A28" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="310">
+      <c r="B28" s="309">
         <f>B22-(B22*B27)</f>
         <v>1662.6</v>
       </c>
@@ -4570,15 +4507,15 @@
       <c r="K28"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="321">
+      <c r="B29" s="320">
         <f>(B22*B27)+B22</f>
         <v>2249.4</v>
       </c>
-      <c r="E29" s="373"/>
-      <c r="F29" s="373"/>
+      <c r="E29" s="374"/>
+      <c r="F29" s="374"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -4586,13 +4523,13 @@
       <c r="K29"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B30" s="49">
         <v>0.2</v>
       </c>
-      <c r="D30" s="51"/>
+      <c r="D30" s="50"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
@@ -4605,7 +4542,7 @@
       <c r="A31" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="52">
+      <c r="B31" s="51">
         <f>B23-(B23*B30)</f>
         <v>5044</v>
       </c>
@@ -4618,10 +4555,10 @@
       <c r="K31"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="47">
         <f>B23*B30+B23</f>
         <v>7566</v>
       </c>
@@ -4634,10 +4571,10 @@
       <c r="K32"/>
     </row>
     <row r="33" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="53">
+      <c r="B33" s="52">
         <v>10</v>
       </c>
       <c r="E33"/>
@@ -4652,7 +4589,7 @@
       <c r="A34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="310">
+      <c r="B34" s="309">
         <f>B24-B33</f>
         <v>1960</v>
       </c>
@@ -4663,13 +4600,13 @@
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
-      <c r="L34" s="43"/>
+      <c r="L34" s="42"/>
     </row>
     <row r="35" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="311" t="s">
+      <c r="A35" s="310" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="312">
+      <c r="B35" s="311">
         <f>B24+B33</f>
         <v>1980</v>
       </c>
@@ -4680,29 +4617,29 @@
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
-      <c r="L35" s="43"/>
+      <c r="L35" s="42"/>
     </row>
     <row r="36" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L36" s="43"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="380" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" s="381"/>
-      <c r="C37" s="381"/>
-      <c r="D37" s="381"/>
-      <c r="E37" s="381"/>
-      <c r="F37" s="381"/>
-      <c r="G37" s="381"/>
-      <c r="H37" s="381"/>
-      <c r="I37" s="381"/>
-      <c r="J37" s="381"/>
-      <c r="K37" s="382"/>
-      <c r="L37" s="43"/>
+      <c r="A37" s="381" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="382"/>
+      <c r="C37" s="382"/>
+      <c r="D37" s="382"/>
+      <c r="E37" s="382"/>
+      <c r="F37" s="382"/>
+      <c r="G37" s="382"/>
+      <c r="H37" s="382"/>
+      <c r="I37" s="382"/>
+      <c r="J37" s="382"/>
+      <c r="K37" s="383"/>
+      <c r="L37" s="42"/>
     </row>
     <row r="38" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="114" t="s">
+      <c r="A38" s="113" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="29" t="s">
@@ -4711,311 +4648,311 @@
       <c r="C38" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="78" t="s">
+      <c r="F38" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="78" t="s">
+      <c r="H38" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="93" t="s">
+      <c r="I38" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="94" t="s">
+      <c r="J38" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="K38" s="353" t="s">
+      <c r="K38" s="352" t="s">
         <v>134</v>
       </c>
-      <c r="L38" s="43"/>
+      <c r="L38" s="42"/>
     </row>
     <row r="39" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="116" t="s">
+      <c r="A39" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="160"/>
-      <c r="C39" s="141"/>
-      <c r="D39" s="288" t="e">
+      <c r="B39" s="159"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="287" t="e">
         <f>B39/C39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="309">
+      <c r="E39" s="78"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="308">
         <v>0</v>
       </c>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
     </row>
     <row r="40" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="116" t="s">
+      <c r="A40" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="160"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="288" t="e">
+      <c r="B40" s="159"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="287" t="e">
         <f t="shared" ref="D40:D49" si="0">B40/C40</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="309">
+      <c r="E40" s="78"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="308">
         <v>0</v>
       </c>
-      <c r="J40" s="73"/>
-      <c r="K40" s="354"/>
-      <c r="L40" s="43"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="353"/>
+      <c r="L40" s="42"/>
     </row>
     <row r="41" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="116" t="s">
+      <c r="A41" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="160"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="288" t="e">
+      <c r="B41" s="159"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="287" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="79"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="309">
+      <c r="E41" s="78"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="308">
         <v>0</v>
       </c>
-      <c r="J41" s="73"/>
-      <c r="K41" s="354"/>
-      <c r="L41" s="43"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="353"/>
+      <c r="L41" s="42"/>
     </row>
     <row r="42" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="116" t="s">
+      <c r="A42" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="160"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="288" t="e">
+      <c r="B42" s="159"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="287" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="309">
+      <c r="E42" s="78"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="308">
         <v>0</v>
       </c>
-      <c r="J42" s="73"/>
-      <c r="K42" s="354"/>
-      <c r="L42" s="43"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="353"/>
+      <c r="L42" s="42"/>
     </row>
     <row r="43" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="116" t="s">
+      <c r="A43" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="160"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="288" t="e">
+      <c r="B43" s="159"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="287" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="79"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="309">
+      <c r="E43" s="78"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="308">
         <v>0</v>
       </c>
-      <c r="J43" s="73"/>
-      <c r="K43" s="354"/>
-      <c r="L43" s="43"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="353"/>
+      <c r="L43" s="42"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="116" t="s">
+      <c r="A44" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="160"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="288" t="e">
+      <c r="B44" s="159"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="287" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="309">
+      <c r="E44" s="78"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="308">
         <v>0</v>
       </c>
-      <c r="J44" s="73"/>
-      <c r="K44" s="354"/>
-      <c r="L44" s="43"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="353"/>
+      <c r="L44" s="42"/>
     </row>
     <row r="45" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="116" t="s">
+      <c r="A45" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="160"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="288" t="e">
+      <c r="B45" s="159"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="287" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E45" s="79"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="309">
+      <c r="E45" s="78"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="308">
         <v>0</v>
       </c>
-      <c r="J45" s="73"/>
-      <c r="K45" s="354"/>
-      <c r="L45" s="43"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="353"/>
+      <c r="L45" s="42"/>
     </row>
     <row r="46" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="116" t="s">
+      <c r="A46" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="160"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="288" t="e">
+      <c r="B46" s="159"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="287" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E46" s="79"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="309">
+      <c r="E46" s="78"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="308">
         <v>0</v>
       </c>
-      <c r="J46" s="73"/>
-      <c r="K46" s="354"/>
-      <c r="L46" s="43"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="353"/>
+      <c r="L46" s="42"/>
     </row>
     <row r="47" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="116" t="s">
+      <c r="A47" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="160"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="288" t="e">
+      <c r="B47" s="159"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="287" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E47" s="79"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="309">
+      <c r="E47" s="78"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="308">
         <v>0</v>
       </c>
-      <c r="J47" s="73"/>
-      <c r="K47" s="354"/>
-      <c r="L47" s="43"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="353"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="116" t="s">
+      <c r="A48" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="160"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="288" t="e">
+      <c r="B48" s="159"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="287" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E48" s="79"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="309">
+      <c r="E48" s="78"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="308">
         <v>0</v>
       </c>
-      <c r="J48" s="73"/>
-      <c r="K48" s="354"/>
-      <c r="L48" s="43"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="353"/>
+      <c r="L48" s="42"/>
     </row>
     <row r="49" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="116" t="s">
+      <c r="A49" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="160"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="288" t="e">
+      <c r="B49" s="159"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="287" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="79"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="309">
+      <c r="E49" s="78"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="308">
         <v>0</v>
       </c>
-      <c r="J49" s="73"/>
-      <c r="K49" s="354"/>
-      <c r="L49" s="43"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="353"/>
+      <c r="L49" s="42"/>
     </row>
     <row r="50" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="117"/>
-      <c r="B50" s="98" t="s">
+      <c r="A50" s="116"/>
+      <c r="B50" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="142" t="s">
+      <c r="C50" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="65" t="s">
+      <c r="D50" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="75" t="s">
+      <c r="E50" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F50" s="75" t="s">
+      <c r="F50" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="75" t="s">
+      <c r="G50" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="H50" s="66"/>
+      <c r="H50" s="65"/>
       <c r="I50" s="30"/>
       <c r="J50" s="30"/>
       <c r="K50" s="31"/>
-      <c r="L50" s="43"/>
+      <c r="L50" s="42"/>
     </row>
     <row r="51" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="117"/>
-      <c r="B51" s="161" t="e">
+      <c r="A51" s="116"/>
+      <c r="B51" s="160" t="e">
         <f>AVERAGE(B39:B49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C51" s="142" t="e">
+      <c r="C51" s="141" t="e">
         <f>AVERAGE(C39:C49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D51" s="289" t="e">
+      <c r="D51" s="288" t="e">
         <f>B51/C51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="89" t="e">
+      <c r="E51" s="88" t="e">
         <f>AVERAGE(E39:E49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="75" t="e">
+      <c r="F51" s="74" t="e">
         <f>AVERAGE(F39:F49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="75" t="e">
+      <c r="G51" s="74" t="e">
         <f>AVERAGE(G39:G49)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5023,15 +4960,15 @@
       <c r="I51" s="30"/>
       <c r="J51" s="30"/>
       <c r="K51" s="31"/>
-      <c r="L51" s="43"/>
+      <c r="L51" s="42"/>
     </row>
     <row r="52" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="56"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
@@ -5039,17 +4976,17 @@
       <c r="K52" s="31"/>
     </row>
     <row r="53" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="261" t="s">
+      <c r="A53" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="262"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="377" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53" s="378"/>
-      <c r="F53" s="378"/>
-      <c r="G53" s="379"/>
+      <c r="B53" s="261"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="378" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="379"/>
+      <c r="F53" s="379"/>
+      <c r="G53" s="380"/>
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
       <c r="J53" s="30"/>
@@ -5059,7 +4996,7 @@
       <c r="A54" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="159" t="e">
+      <c r="B54" s="158" t="e">
         <f>B57*B22</f>
         <v>#DIV/0!</v>
       </c>
@@ -5067,15 +5004,11 @@
       <c r="D54" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="74">
-        <v>5500</v>
-      </c>
+      <c r="E54" s="73"/>
       <c r="F54" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="G54" s="74">
-        <v>3</v>
-      </c>
+      <c r="G54" s="73"/>
       <c r="H54" s="30"/>
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
@@ -5085,7 +5018,7 @@
       <c r="A55" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="162" t="e">
+      <c r="B55" s="161" t="e">
         <f>C51</f>
         <v>#DIV/0!</v>
       </c>
@@ -5093,15 +5026,11 @@
       <c r="D55" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="74">
-        <v>1150</v>
-      </c>
+      <c r="E55" s="73"/>
       <c r="F55" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G55" s="74">
-        <v>2</v>
-      </c>
+      <c r="G55" s="73"/>
       <c r="H55" s="30"/>
       <c r="I55" s="30"/>
       <c r="J55" s="30"/>
@@ -5111,68 +5040,60 @@
       <c r="A56" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="299" t="e">
+      <c r="B56" s="298" t="e">
         <f>B51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C56" s="66"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="74" t="s">
-        <v>138</v>
-      </c>
+      <c r="E56" s="73"/>
       <c r="F56" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G56" s="74">
-        <v>1937</v>
-      </c>
+      <c r="G56" s="73"/>
       <c r="H56" s="30"/>
       <c r="I56" s="30"/>
       <c r="J56" s="30"/>
       <c r="K56" s="31"/>
     </row>
     <row r="57" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="184" t="s">
+      <c r="A57" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="185" t="e">
+      <c r="B57" s="184" t="e">
         <f>D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="300" t="s">
+      <c r="C57" s="66"/>
+      <c r="D57" s="299" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="317">
-        <v>450000</v>
-      </c>
-      <c r="F57" s="300" t="s">
+      <c r="E57" s="316"/>
+      <c r="F57" s="299" t="s">
         <v>81</v>
       </c>
-      <c r="G57" s="118">
-        <v>79</v>
-      </c>
+      <c r="G57" s="117"/>
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
       <c r="K57" s="33"/>
     </row>
     <row r="58" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
     </row>
     <row r="59" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="383" t="s">
+      <c r="A59" s="367" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="384"/>
+      <c r="A60" s="368"/>
     </row>
     <row r="61" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="301" t="s">
+      <c r="A61" s="300" t="s">
         <v>101</v>
       </c>
       <c r="B61" s="28"/>
@@ -5181,98 +5102,98 @@
       <c r="A62" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="39">
+      <c r="B62" s="408">
         <f>B22</f>
         <v>1956</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="163">
+      <c r="B63" s="162">
         <f>B64*B62</f>
         <v>88020</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="164">
+      <c r="B64" s="163">
         <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="85" t="s">
+      <c r="A65" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="86"/>
+      <c r="B65" s="85"/>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="301" t="s">
+      <c r="A66" s="300" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="302"/>
+      <c r="B66" s="301"/>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="87" t="s">
+      <c r="A67" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="144">
+      <c r="B67" s="143">
         <v>20000</v>
       </c>
-      <c r="C67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
+      <c r="C67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="88">
+      <c r="B68" s="87">
         <f>B22</f>
         <v>1956</v>
       </c>
-      <c r="C68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
+      <c r="C68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="84" t="s">
+      <c r="A69" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="165">
+      <c r="B69" s="164">
         <f>B67/B68</f>
         <v>10.224948875255624</v>
       </c>
-      <c r="C69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
+      <c r="C69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="383" t="s">
+      <c r="A71" s="367" t="s">
         <v>37</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71"/>
-      <c r="H71" s="373"/>
-      <c r="I71" s="373"/>
+      <c r="H71" s="374"/>
+      <c r="I71" s="374"/>
       <c r="J71"/>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="384"/>
+      <c r="A72" s="368"/>
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72"/>
@@ -5281,12 +5202,12 @@
       <c r="J72"/>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="360" t="s">
+      <c r="A73" s="359" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="362"/>
-      <c r="C73" s="362"/>
-      <c r="D73" s="361"/>
+      <c r="B73" s="361"/>
+      <c r="C73" s="361"/>
+      <c r="D73" s="360"/>
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73"/>
@@ -5298,14 +5219,14 @@
       <c r="A74" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="150" t="e">
+      <c r="B74" s="149" t="e">
         <f>B54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C74" s="146" t="s">
+      <c r="C74" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="158" t="s">
+      <c r="D74" s="157" t="s">
         <v>103</v>
       </c>
       <c r="E74"/>
@@ -5319,15 +5240,15 @@
       <c r="A75" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="156">
+      <c r="B75" s="155">
         <f>B63</f>
         <v>88020</v>
       </c>
-      <c r="C75" s="151">
+      <c r="C75" s="150">
         <f>B75</f>
         <v>88020</v>
       </c>
-      <c r="D75" s="145" t="e">
+      <c r="D75" s="144" t="e">
         <f>B74-B75</f>
         <v>#DIV/0!</v>
       </c>
@@ -5345,11 +5266,11 @@
       <c r="B76" s="11">
         <v>0.06</v>
       </c>
-      <c r="C76" s="151" t="e">
+      <c r="C76" s="150" t="e">
         <f xml:space="preserve"> B76*B74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D76" s="145" t="e">
+      <c r="D76" s="144" t="e">
         <f t="shared" ref="D76:D81" si="1">D75-C76</f>
         <v>#DIV/0!</v>
       </c>
@@ -5367,11 +5288,11 @@
       <c r="B77" s="11">
         <v>0.03</v>
       </c>
-      <c r="C77" s="151" t="e">
+      <c r="C77" s="150" t="e">
         <f>B77*B74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D77" s="145" t="e">
+      <c r="D77" s="144" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -5386,14 +5307,14 @@
       <c r="A78" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="143">
+      <c r="B78" s="142">
         <v>0.03</v>
       </c>
-      <c r="C78" s="151" t="e">
+      <c r="C78" s="150" t="e">
         <f>B78*B74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D78" s="145" t="e">
+      <c r="D78" s="144" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -5411,11 +5332,11 @@
       <c r="B79" s="11">
         <v>0.1</v>
       </c>
-      <c r="C79" s="151" t="e">
+      <c r="C79" s="150" t="e">
         <f>B79*B74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D79" s="145" t="e">
+      <c r="D79" s="144" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -5427,17 +5348,17 @@
       <c r="J79"/>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="363" t="s">
+      <c r="A80" s="362" t="s">
         <v>116</v>
       </c>
-      <c r="B80" s="153">
+      <c r="B80" s="152">
         <v>0</v>
       </c>
-      <c r="C80" s="299">
+      <c r="C80" s="298">
         <f>B80</f>
         <v>0</v>
       </c>
-      <c r="D80" s="364" t="e">
+      <c r="D80" s="363" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -5452,14 +5373,14 @@
       <c r="A81" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="153">
+      <c r="B81" s="152">
         <v>15000</v>
       </c>
-      <c r="C81" s="151">
+      <c r="C81" s="150">
         <f>B81</f>
         <v>15000</v>
       </c>
-      <c r="D81" s="157" t="e">
+      <c r="D81" s="156" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -5474,15 +5395,15 @@
       <c r="A82" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B82" s="274" t="e">
+      <c r="B82" s="273" t="e">
         <f>B74-(C75+C76+C77+C78+C79+C81+C80)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C82" s="152" t="e">
+      <c r="C82" s="151" t="e">
         <f>SUM(C75:C81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D82" s="149"/>
+      <c r="D82" s="148"/>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
@@ -5491,14 +5412,14 @@
       <c r="J82"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="56" t="s">
+      <c r="A83" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="154" t="e">
+      <c r="B83" s="153" t="e">
         <f>C79</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C83" s="263" t="s">
+      <c r="C83" s="262" t="s">
         <v>114</v>
       </c>
       <c r="D83" s="31"/>
@@ -5513,11 +5434,11 @@
       <c r="A84" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B84" s="155" t="e">
+      <c r="B84" s="154" t="e">
         <f>C75+C76+C77+C78+C81+C80</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C84" s="147" t="s">
+      <c r="C84" s="146" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="31"/>
@@ -5532,11 +5453,11 @@
       <c r="A85" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="57">
+      <c r="B85" s="56">
         <f>(B76+B77+B78+B79)</f>
         <v>0.22</v>
       </c>
-      <c r="C85" s="147"/>
+      <c r="C85" s="146"/>
       <c r="D85" s="31"/>
       <c r="E85"/>
       <c r="F85"/>
@@ -5549,8 +5470,8 @@
       <c r="A86" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="58"/>
-      <c r="C86" s="148"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="147"/>
       <c r="D86" s="31"/>
       <c r="E86"/>
       <c r="F86"/>
@@ -5582,63 +5503,63 @@
       <c r="J88"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="383" t="s">
+      <c r="A89" s="367" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="384"/>
+      <c r="A90" s="368"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="301" t="s">
+      <c r="A91" s="300" t="s">
         <v>97</v>
       </c>
-      <c r="B91" s="303"/>
-      <c r="C91" s="303"/>
-      <c r="D91" s="303"/>
-      <c r="E91" s="303"/>
-      <c r="F91" s="302"/>
+      <c r="B91" s="302"/>
+      <c r="C91" s="302"/>
+      <c r="D91" s="302"/>
+      <c r="E91" s="302"/>
+      <c r="F91" s="301"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="59" t="s">
+      <c r="A92" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="60" t="s">
+      <c r="B92" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="60" t="s">
+      <c r="C92" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="60" t="s">
+      <c r="D92" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="277" t="s">
+      <c r="E92" s="276" t="s">
         <v>100</v>
       </c>
-      <c r="F92" s="278" t="s">
+      <c r="F92" s="277" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A93" s="168" t="e">
+      <c r="A93" s="167" t="e">
         <f>B74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B93" s="166">
+      <c r="B93" s="165">
         <f>B64</f>
         <v>45</v>
       </c>
-      <c r="C93" s="167">
+      <c r="C93" s="166">
         <v>15000</v>
       </c>
       <c r="D93" s="9">
         <v>0.75</v>
       </c>
-      <c r="E93" s="275" t="e">
+      <c r="E93" s="274" t="e">
         <f>(A93*D93)-B63-C93</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F93" s="280" t="e">
+      <c r="F93" s="279" t="e">
         <f>E93/B22</f>
         <v>#DIV/0!</v>
       </c>
@@ -5647,68 +5568,68 @@
       <c r="A94" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="76"/>
-      <c r="C94" s="371" t="s">
+      <c r="B94" s="75"/>
+      <c r="C94" s="372" t="s">
         <v>69</v>
       </c>
-      <c r="D94" s="372"/>
-      <c r="E94" s="276" t="e">
+      <c r="D94" s="373"/>
+      <c r="E94" s="275" t="e">
         <f>(E93+E95)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F94" s="281" t="e">
+      <c r="F94" s="280" t="e">
         <f>E94/B22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B95" s="77"/>
-      <c r="C95" s="369" t="s">
+      <c r="B95" s="76"/>
+      <c r="C95" s="370" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="370"/>
-      <c r="E95" s="279" t="e">
+      <c r="D95" s="371"/>
+      <c r="E95" s="278" t="e">
         <f>E93*0.9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F95" s="282" t="e">
+      <c r="F95" s="281" t="e">
         <f>E95/B22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A97" s="383" t="s">
+      <c r="A97" s="367" t="s">
         <v>40</v>
       </c>
       <c r="B97" s="13"/>
     </row>
     <row r="98" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="384"/>
-      <c r="B98" s="81"/>
+      <c r="A98" s="368"/>
+      <c r="B98" s="80"/>
     </row>
     <row r="99" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="286" t="s">
+      <c r="A99" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="B99" s="287"/>
-      <c r="C99" s="295" t="s">
+      <c r="B99" s="286"/>
+      <c r="C99" s="294" t="s">
         <v>92</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A100" s="297" t="s">
+      <c r="A100" s="296" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="298" t="e">
+      <c r="B100" s="297" t="e">
         <f>B74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C100" s="328" t="e">
+      <c r="C100" s="327" t="e">
         <f>B100/B22</f>
         <v>#DIV/0!</v>
       </c>
@@ -5717,14 +5638,14 @@
       <c r="H100" s="30"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A101" s="68" t="s">
+      <c r="A101" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B101" s="169" t="e">
+      <c r="B101" s="168" t="e">
         <f>B84</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C101" s="327" t="e">
+      <c r="C101" s="326" t="e">
         <f>B101/B22</f>
         <v>#DIV/0!</v>
       </c>
@@ -5734,14 +5655,14 @@
       <c r="H101" s="30"/>
     </row>
     <row r="102" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="323" t="s">
+      <c r="A102" s="322" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="324" t="e">
+      <c r="B102" s="323" t="e">
         <f>B82</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C102" s="327" t="e">
+      <c r="C102" s="326" t="e">
         <f>B102/B22</f>
         <v>#DIV/0!</v>
       </c>
@@ -5751,14 +5672,14 @@
       <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="325" t="s">
+      <c r="A103" s="324" t="s">
         <v>62</v>
       </c>
-      <c r="B103" s="326" t="e">
+      <c r="B103" s="325" t="e">
         <f>E93</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C103" s="327" t="e">
+      <c r="C103" s="326" t="e">
         <f>B103/B22</f>
         <v>#DIV/0!</v>
       </c>
@@ -5768,40 +5689,40 @@
       <c r="H103" s="30"/>
     </row>
     <row r="104" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="56"/>
-      <c r="B104" s="170"/>
-      <c r="C104" s="140"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="169"/>
+      <c r="C104" s="139"/>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
       <c r="G104" s="30"/>
       <c r="H104" s="30"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A105" s="329" t="s">
+      <c r="A105" s="328" t="s">
         <v>54</v>
       </c>
-      <c r="B105" s="330" t="e">
+      <c r="B105" s="329" t="e">
         <f>B82</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C105" s="346" t="e">
+      <c r="C105" s="345" t="e">
         <f>B105/B22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D105" s="290"/>
-      <c r="E105" s="291"/>
+      <c r="D105" s="289"/>
+      <c r="E105" s="290"/>
       <c r="G105" s="30"/>
       <c r="H105" s="30"/>
     </row>
     <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="80" t="s">
+      <c r="A106" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B106" s="171" t="e">
+      <c r="B106" s="170" t="e">
         <f>B105*0.9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C106" s="347" t="e">
+      <c r="C106" s="346" t="e">
         <f>B106/B22</f>
         <v>#DIV/0!</v>
       </c>
@@ -5809,14 +5730,14 @@
       <c r="E106" s="23"/>
     </row>
     <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="80" t="s">
+      <c r="A107" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B107" s="171" t="e">
+      <c r="B107" s="170" t="e">
         <f>B100-(B106+B101)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C107" s="347" t="e">
+      <c r="C107" s="346" t="e">
         <f>B107/B22</f>
         <v>#DIV/0!</v>
       </c>
@@ -5826,14 +5747,14 @@
       <c r="H107" s="30"/>
     </row>
     <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="138" t="s">
+      <c r="A108" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B108" s="171" t="e">
+      <c r="B108" s="170" t="e">
         <f>B100-(B105+B101)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C108" s="347" t="e">
+      <c r="C108" s="346" t="e">
         <f>B108/B22</f>
         <v>#DIV/0!</v>
       </c>
@@ -5843,21 +5764,21 @@
       <c r="H108" s="30"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A109" s="56"/>
-      <c r="B109" s="170"/>
-      <c r="C109" s="348"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="169"/>
+      <c r="C109" s="347"/>
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A110" s="331" t="s">
+      <c r="A110" s="330" t="s">
         <v>62</v>
       </c>
-      <c r="B110" s="332" t="e">
+      <c r="B110" s="331" t="e">
         <f>E93</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C110" s="349" t="e">
+      <c r="C110" s="348" t="e">
         <f>B110/B22</f>
         <v>#DIV/0!</v>
       </c>
@@ -5867,14 +5788,14 @@
       <c r="H110" s="30"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A111" s="69" t="s">
+      <c r="A111" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B111" s="172" t="e">
+      <c r="B111" s="171" t="e">
         <f>E95</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C111" s="350" t="e">
+      <c r="C111" s="349" t="e">
         <f>B111/B22</f>
         <v>#DIV/0!</v>
       </c>
@@ -5884,14 +5805,14 @@
       <c r="H111" s="30"/>
     </row>
     <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="139" t="s">
+      <c r="A112" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B112" s="172" t="e">
+      <c r="B112" s="171" t="e">
         <f>B100-B110-B101</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C112" s="350" t="e">
+      <c r="C112" s="349" t="e">
         <f>B112/B22</f>
         <v>#DIV/0!</v>
       </c>
@@ -5901,23 +5822,23 @@
       <c r="H112" s="30"/>
     </row>
     <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="318"/>
-      <c r="B113" s="319"/>
-      <c r="C113" s="351"/>
+      <c r="A113" s="317"/>
+      <c r="B113" s="318"/>
+      <c r="C113" s="350"/>
       <c r="D113" s="23"/>
       <c r="E113" s="23"/>
       <c r="G113" s="30"/>
       <c r="H113" s="30"/>
     </row>
     <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="70" t="s">
+      <c r="A114" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B114" s="172">
+      <c r="B114" s="171">
         <f>C93</f>
         <v>15000</v>
       </c>
-      <c r="C114" s="350">
+      <c r="C114" s="349">
         <f>B114/B22</f>
         <v>7.6687116564417179</v>
       </c>
@@ -5927,46 +5848,46 @@
       <c r="H114" s="30"/>
     </row>
     <row r="115" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="341"/>
-      <c r="B115" s="342"/>
-      <c r="C115" s="320"/>
+      <c r="A115" s="340"/>
+      <c r="B115" s="341"/>
+      <c r="C115" s="319"/>
       <c r="D115" s="23"/>
       <c r="E115" s="23"/>
       <c r="G115" s="30"/>
       <c r="H115" s="30"/>
     </row>
     <row r="116" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="343" t="s">
+      <c r="A116" s="342" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="344" t="e">
+      <c r="B116" s="343" t="e">
         <f>B100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C116" s="345" t="e">
+      <c r="C116" s="344" t="e">
         <f>C100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D116" s="356" t="s">
-        <v>140</v>
+      <c r="D116" s="355" t="s">
+        <v>139</v>
       </c>
       <c r="E116" s="23"/>
       <c r="G116" s="30"/>
       <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A117" s="335" t="s">
+      <c r="A117" s="334" t="s">
         <v>129</v>
       </c>
-      <c r="B117" s="336" t="e">
+      <c r="B117" s="335" t="e">
         <f>B102+B101</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C117" s="337" t="e">
+      <c r="C117" s="336" t="e">
         <f>C102+C101</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D117" s="357" t="e">
+      <c r="D117" s="356" t="e">
         <f>B116-B117</f>
         <v>#DIV/0!</v>
       </c>
@@ -5975,18 +5896,18 @@
       <c r="H117" s="30"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A118" s="338" t="s">
+      <c r="A118" s="337" t="s">
         <v>130</v>
       </c>
-      <c r="B118" s="333" t="e">
+      <c r="B118" s="332" t="e">
         <f>B103+B101</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C118" s="339" t="e">
+      <c r="C118" s="338" t="e">
         <f>C103+C101</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D118" s="358" t="e">
+      <c r="D118" s="357" t="e">
         <f>B116-B118</f>
         <v>#DIV/0!</v>
       </c>
@@ -5995,18 +5916,18 @@
       <c r="H118" s="30"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A119" s="296" t="s">
+      <c r="A119" s="295" t="s">
         <v>131</v>
       </c>
-      <c r="B119" s="340" t="e">
+      <c r="B119" s="339" t="e">
         <f>E95+B101</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C119" s="334" t="e">
+      <c r="C119" s="333" t="e">
         <f>F95+C101</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D119" s="359" t="e">
+      <c r="D119" s="358" t="e">
         <f>B116-B119</f>
         <v>#DIV/0!</v>
       </c>
@@ -6014,27 +5935,27 @@
       <c r="H119" s="30"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A120" s="251" t="s">
+      <c r="A120" s="250" t="s">
         <v>104</v>
       </c>
-      <c r="B120" s="252"/>
-      <c r="C120" s="253"/>
+      <c r="B120" s="251"/>
+      <c r="C120" s="252"/>
       <c r="D120" s="8"/>
       <c r="E120" s="23"/>
       <c r="H120" s="30"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A121" s="254"/>
-      <c r="B121" s="255"/>
-      <c r="C121" s="256"/>
+      <c r="A121" s="253"/>
+      <c r="B121" s="254"/>
+      <c r="C121" s="255"/>
       <c r="D121" s="8"/>
       <c r="E121" s="23"/>
       <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="257"/>
-      <c r="B122" s="258"/>
-      <c r="C122" s="259"/>
+      <c r="A122" s="256"/>
+      <c r="B122" s="257"/>
+      <c r="C122" s="258"/>
       <c r="D122" s="21"/>
       <c r="E122" s="23"/>
       <c r="H122" s="30"/>
@@ -6334,26 +6255,26 @@
     <mergeCell ref="A89:A90"/>
   </mergeCells>
   <conditionalFormatting sqref="C39:C49">
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>$B$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>$B$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E49">
-    <cfRule type="cellIs" dxfId="9" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>$B$31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>$B$32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F49">
-    <cfRule type="cellIs" dxfId="7" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>$B$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="24" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>$B$35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6377,891 +6298,891 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="54" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="54" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="54"/>
+    <col min="1" max="1" width="14.83203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="53" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="397" t="s">
+      <c r="A1" s="384" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="398"/>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="F1" s="399"/>
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="386"/>
     </row>
     <row r="2" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="400"/>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="402"/>
+      <c r="A2" s="387"/>
+      <c r="B2" s="388"/>
+      <c r="C2" s="388"/>
+      <c r="D2" s="388"/>
+      <c r="E2" s="388"/>
+      <c r="F2" s="389"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="218" t="str">
+      <c r="A3" s="217" t="str">
         <f>'SFR ANALYSIS'!A10:B10</f>
         <v xml:space="preserve">ADDRESS:  </v>
       </c>
-      <c r="B3" s="407" t="str">
+      <c r="B3" s="398" t="str">
         <f>'SFR ANALYSIS'!B10:C10</f>
         <v>123 Main St, Anywhere CA 91234</v>
       </c>
-      <c r="C3" s="407"/>
-      <c r="D3" s="408"/>
-      <c r="E3" s="202" t="s">
+      <c r="C3" s="398"/>
+      <c r="D3" s="399"/>
+      <c r="E3" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="92" t="str">
+      <c r="F3" s="91" t="str">
         <f>'SFR ANALYSIS'!B12</f>
         <v>Off Market</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="390" t="s">
+      <c r="A4" s="405" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="391"/>
-      <c r="C4" s="391"/>
-      <c r="D4" s="391"/>
-      <c r="E4" s="391"/>
-      <c r="F4" s="392"/>
+      <c r="B4" s="406"/>
+      <c r="C4" s="406"/>
+      <c r="D4" s="406"/>
+      <c r="E4" s="406"/>
+      <c r="F4" s="407"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="405" t="s">
+      <c r="A5" s="396" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="406"/>
-      <c r="C5" s="203" t="s">
+      <c r="B5" s="397"/>
+      <c r="C5" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="203" t="s">
+      <c r="D5" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="285" t="s">
+      <c r="E5" s="284" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="219" t="s">
+      <c r="F5" s="218" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="393" t="str">
+      <c r="A6" s="392" t="str">
         <f>'SFR ANALYSIS'!A39</f>
         <v>N/A</v>
       </c>
-      <c r="B6" s="394"/>
-      <c r="C6" s="204">
+      <c r="B6" s="393"/>
+      <c r="C6" s="203">
         <f>'SFR ANALYSIS'!B39</f>
         <v>0</v>
       </c>
-      <c r="D6" s="249">
+      <c r="D6" s="248">
         <f>'SFR ANALYSIS'!C39</f>
         <v>0</v>
       </c>
-      <c r="E6" s="205" t="e">
+      <c r="E6" s="204" t="e">
         <f>'SFR ANALYSIS'!D39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="220">
+      <c r="F6" s="219">
         <f>'SFR ANALYSIS'!I39</f>
         <v>0</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="61"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="395" t="str">
+      <c r="A7" s="390" t="str">
         <f>'SFR ANALYSIS'!A40</f>
         <v>N/A</v>
       </c>
-      <c r="B7" s="396"/>
-      <c r="C7" s="206">
+      <c r="B7" s="391"/>
+      <c r="C7" s="205">
         <f>'SFR ANALYSIS'!B40</f>
         <v>0</v>
       </c>
-      <c r="D7" s="250">
+      <c r="D7" s="249">
         <f>'SFR ANALYSIS'!C40</f>
         <v>0</v>
       </c>
-      <c r="E7" s="207" t="e">
+      <c r="E7" s="206" t="e">
         <f>'SFR ANALYSIS'!D40</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="221">
+      <c r="F7" s="220">
         <f>'SFR ANALYSIS'!I40</f>
         <v>0</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="393" t="str">
+      <c r="A8" s="392" t="str">
         <f>'SFR ANALYSIS'!A41</f>
         <v>N/A</v>
       </c>
-      <c r="B8" s="394"/>
-      <c r="C8" s="204">
+      <c r="B8" s="393"/>
+      <c r="C8" s="203">
         <f>'SFR ANALYSIS'!B41</f>
         <v>0</v>
       </c>
-      <c r="D8" s="249">
+      <c r="D8" s="248">
         <f>'SFR ANALYSIS'!C41</f>
         <v>0</v>
       </c>
-      <c r="E8" s="205" t="e">
+      <c r="E8" s="204" t="e">
         <f>'SFR ANALYSIS'!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="222">
+      <c r="F8" s="221">
         <f>'SFR ANALYSIS'!I41</f>
         <v>0</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="395" t="str">
+      <c r="A9" s="390" t="str">
         <f>'SFR ANALYSIS'!A42</f>
         <v>N/A</v>
       </c>
-      <c r="B9" s="396"/>
-      <c r="C9" s="206">
+      <c r="B9" s="391"/>
+      <c r="C9" s="205">
         <f>'SFR ANALYSIS'!B42</f>
         <v>0</v>
       </c>
-      <c r="D9" s="250">
+      <c r="D9" s="249">
         <f>'SFR ANALYSIS'!C42</f>
         <v>0</v>
       </c>
-      <c r="E9" s="207" t="e">
+      <c r="E9" s="206" t="e">
         <f>'SFR ANALYSIS'!D42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="221">
+      <c r="F9" s="220">
         <f>'SFR ANALYSIS'!I42</f>
         <v>0</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="393" t="str">
+      <c r="A10" s="392" t="str">
         <f>'SFR ANALYSIS'!A43</f>
         <v>N/A</v>
       </c>
-      <c r="B10" s="394"/>
-      <c r="C10" s="204">
+      <c r="B10" s="393"/>
+      <c r="C10" s="203">
         <f>'SFR ANALYSIS'!B43</f>
         <v>0</v>
       </c>
-      <c r="D10" s="249">
+      <c r="D10" s="248">
         <f>'SFR ANALYSIS'!C43</f>
         <v>0</v>
       </c>
-      <c r="E10" s="205" t="e">
+      <c r="E10" s="204" t="e">
         <f>'SFR ANALYSIS'!D43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="222">
+      <c r="F10" s="221">
         <f>'SFR ANALYSIS'!I43</f>
         <v>0</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="395" t="str">
+      <c r="A11" s="390" t="str">
         <f>'SFR ANALYSIS'!A44</f>
         <v>N/A</v>
       </c>
-      <c r="B11" s="396"/>
-      <c r="C11" s="206">
+      <c r="B11" s="391"/>
+      <c r="C11" s="205">
         <f>'SFR ANALYSIS'!B44</f>
         <v>0</v>
       </c>
-      <c r="D11" s="250">
+      <c r="D11" s="249">
         <f>'SFR ANALYSIS'!C44</f>
         <v>0</v>
       </c>
-      <c r="E11" s="207" t="e">
+      <c r="E11" s="206" t="e">
         <f>'SFR ANALYSIS'!D44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="221">
+      <c r="F11" s="220">
         <f>'SFR ANALYSIS'!I44</f>
         <v>0</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="393" t="str">
+      <c r="A12" s="392" t="str">
         <f>'SFR ANALYSIS'!A45</f>
         <v>N/A</v>
       </c>
-      <c r="B12" s="394"/>
-      <c r="C12" s="204">
+      <c r="B12" s="393"/>
+      <c r="C12" s="203">
         <f>'SFR ANALYSIS'!B45</f>
         <v>0</v>
       </c>
-      <c r="D12" s="249">
+      <c r="D12" s="248">
         <f>'SFR ANALYSIS'!C45</f>
         <v>0</v>
       </c>
-      <c r="E12" s="205" t="e">
+      <c r="E12" s="204" t="e">
         <f>'SFR ANALYSIS'!D45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="222">
+      <c r="F12" s="221">
         <f>'SFR ANALYSIS'!I45</f>
         <v>0</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="395" t="str">
+      <c r="A13" s="390" t="str">
         <f>'SFR ANALYSIS'!A46</f>
         <v>N/A</v>
       </c>
-      <c r="B13" s="396"/>
-      <c r="C13" s="206">
+      <c r="B13" s="391"/>
+      <c r="C13" s="205">
         <f>'SFR ANALYSIS'!B46</f>
         <v>0</v>
       </c>
-      <c r="D13" s="250">
+      <c r="D13" s="249">
         <f>'SFR ANALYSIS'!C46</f>
         <v>0</v>
       </c>
-      <c r="E13" s="207" t="e">
+      <c r="E13" s="206" t="e">
         <f>'SFR ANALYSIS'!D46</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="221">
+      <c r="F13" s="220">
         <f>'SFR ANALYSIS'!I46</f>
         <v>0</v>
       </c>
-      <c r="G13" s="61"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="393" t="str">
+      <c r="A14" s="392" t="str">
         <f>'SFR ANALYSIS'!A47</f>
         <v>N/A</v>
       </c>
-      <c r="B14" s="394"/>
-      <c r="C14" s="204">
+      <c r="B14" s="393"/>
+      <c r="C14" s="203">
         <f>'SFR ANALYSIS'!B47</f>
         <v>0</v>
       </c>
-      <c r="D14" s="249">
+      <c r="D14" s="248">
         <f>'SFR ANALYSIS'!C47</f>
         <v>0</v>
       </c>
-      <c r="E14" s="205" t="e">
+      <c r="E14" s="204" t="e">
         <f>'SFR ANALYSIS'!D47</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="222">
+      <c r="F14" s="221">
         <f>'SFR ANALYSIS'!I47</f>
         <v>0</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="395" t="str">
+      <c r="A15" s="390" t="str">
         <f>'SFR ANALYSIS'!A48</f>
         <v>N/A</v>
       </c>
-      <c r="B15" s="396"/>
-      <c r="C15" s="206">
+      <c r="B15" s="391"/>
+      <c r="C15" s="205">
         <f>'SFR ANALYSIS'!B48</f>
         <v>0</v>
       </c>
-      <c r="D15" s="250">
+      <c r="D15" s="249">
         <f>'SFR ANALYSIS'!C48</f>
         <v>0</v>
       </c>
-      <c r="E15" s="207" t="e">
+      <c r="E15" s="206" t="e">
         <f>'SFR ANALYSIS'!D48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="221">
+      <c r="F15" s="220">
         <f>'SFR ANALYSIS'!I48</f>
         <v>0</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="393" t="str">
+      <c r="A16" s="392" t="str">
         <f>'SFR ANALYSIS'!A49</f>
         <v>N/A</v>
       </c>
-      <c r="B16" s="394"/>
-      <c r="C16" s="204">
+      <c r="B16" s="393"/>
+      <c r="C16" s="203">
         <f>'SFR ANALYSIS'!B49</f>
         <v>0</v>
       </c>
-      <c r="D16" s="249">
+      <c r="D16" s="248">
         <f>'SFR ANALYSIS'!C49</f>
         <v>0</v>
       </c>
-      <c r="E16" s="205" t="e">
+      <c r="E16" s="204" t="e">
         <f>'SFR ANALYSIS'!D49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="223">
+      <c r="F16" s="222">
         <f>'SFR ANALYSIS'!I49</f>
         <v>0</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="403"/>
-      <c r="B17" s="404"/>
-      <c r="C17" s="208" t="s">
+      <c r="A17" s="394"/>
+      <c r="B17" s="395"/>
+      <c r="C17" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="208" t="s">
+      <c r="D17" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="208" t="s">
+      <c r="E17" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="224"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" s="385" t="s">
+      <c r="A18" s="400" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="386"/>
-      <c r="C18" s="247" t="e">
+      <c r="B18" s="401"/>
+      <c r="C18" s="246" t="e">
         <f>'SFR ANALYSIS'!B51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="308" t="e">
+      <c r="D18" s="307" t="e">
         <f>'SFR ANALYSIS'!C51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="248" t="e">
+      <c r="E18" s="247" t="e">
         <f>'SFR ANALYSIS'!D51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="225"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
     </row>
     <row r="19" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="226"/>
-      <c r="B19" s="209"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+      <c r="A19" s="225"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="208"/>
+      <c r="E19" s="208"/>
+      <c r="F19" s="226"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
     <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="232" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="210"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="227"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A21" s="314" t="s">
+      <c r="A21" s="313" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="211"/>
-      <c r="C21" s="315" t="e">
+      <c r="B21" s="210"/>
+      <c r="C21" s="314" t="e">
         <f>'SFR ANALYSIS'!B54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D21" s="316"/>
-      <c r="E21" s="128" t="s">
+      <c r="D21" s="315"/>
+      <c r="E21" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="129">
+      <c r="F21" s="128">
         <f>'SFR ANALYSIS'!B23</f>
         <v>6305</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="229" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="212"/>
-      <c r="C22" s="367">
+      <c r="A22" s="228" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="211"/>
+      <c r="C22" s="366">
         <f>'SFR ANALYSIS'!B14</f>
         <v>3</v>
       </c>
-      <c r="D22" s="250">
+      <c r="D22" s="249">
         <f>'SFR ANALYSIS'!B15</f>
         <v>2</v>
       </c>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="123">
+      <c r="F22" s="122">
         <f>'SFR ANALYSIS'!B24</f>
         <v>1970</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
     </row>
     <row r="23" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="230" t="s">
+      <c r="A23" s="229" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="213"/>
-      <c r="C23" s="214">
+      <c r="B23" s="212"/>
+      <c r="C23" s="213">
         <f>'SFR ANALYSIS'!B22</f>
         <v>1956</v>
       </c>
-      <c r="D23" s="215"/>
-      <c r="E23" s="313" t="s">
+      <c r="D23" s="214"/>
+      <c r="E23" s="312" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="125" t="e">
+      <c r="F23" s="124" t="e">
         <f>'SFR ANALYSIS'!G51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
     </row>
     <row r="24" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="229"/>
-      <c r="B24" s="216"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="61"/>
+      <c r="A24" s="228"/>
+      <c r="B24" s="215"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="60"/>
     </row>
     <row r="25" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="233" t="s">
+      <c r="A25" s="232" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="210"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="227"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="127"/>
-      <c r="C26" s="128">
+      <c r="B26" s="126"/>
+      <c r="C26" s="127">
         <f>'SFR ANALYSIS'!E54</f>
-        <v>5500</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="129">
+      <c r="F26" s="128">
         <f>'SFR ANALYSIS'!G54</f>
-        <v>3</v>
-      </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="121">
+      <c r="B27" s="130"/>
+      <c r="C27" s="120">
         <f>'SFR ANALYSIS'!E55</f>
-        <v>1150</v>
-      </c>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="355">
+      <c r="F27" s="354">
         <f>'SFR ANALYSIS'!G55</f>
-        <v>2</v>
-      </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A28" s="132" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="133"/>
-      <c r="C28" s="96" t="str">
+      <c r="A28" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="132"/>
+      <c r="C28" s="95">
         <f>'SFR ANALYSIS'!E56</f>
-        <v>365K - 600K</v>
-      </c>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="97">
+      <c r="F28" s="96">
         <f>'SFR ANALYSIS'!G56</f>
-        <v>1937</v>
-      </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
     </row>
     <row r="29" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="173">
+      <c r="B29" s="134"/>
+      <c r="C29" s="172">
         <f>'SFR ANALYSIS'!E57</f>
-        <v>450000</v>
-      </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="124">
+      <c r="F29" s="123">
         <f>'SFR ANALYSIS'!G57</f>
-        <v>79</v>
-      </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
     </row>
     <row r="30" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="99"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
     </row>
     <row r="31" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="193"/>
-      <c r="C31" s="244" t="s">
+      <c r="B31" s="192"/>
+      <c r="C31" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="246" t="s">
+      <c r="E31" s="245" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="234"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
+      <c r="F31" s="233"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
     </row>
     <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="174">
+      <c r="B32" s="101"/>
+      <c r="C32" s="173">
         <f>'SFR ANALYSIS'!B75</f>
         <v>88020</v>
       </c>
-      <c r="D32" s="178">
+      <c r="D32" s="177">
         <f>'SFR ANALYSIS'!B64</f>
         <v>45</v>
       </c>
-      <c r="E32" s="194"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="104"/>
-      <c r="C33" s="176" t="e">
+      <c r="B33" s="103"/>
+      <c r="C33" s="175" t="e">
         <f>'SFR ANALYSIS'!C76</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D33" s="179" t="e">
+      <c r="D33" s="178" t="e">
         <f>C33/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="105">
+      <c r="E33" s="104">
         <f>'SFR ANALYSIS'!B76</f>
         <v>0.06</v>
       </c>
-      <c r="F33" s="101"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="177" t="e">
+      <c r="B34" s="101"/>
+      <c r="C34" s="176" t="e">
         <f>'SFR ANALYSIS'!C77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="178" t="e">
+      <c r="D34" s="177" t="e">
         <f>C34/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="107">
+      <c r="E34" s="106">
         <f>'SFR ANALYSIS'!B77</f>
         <v>0.03</v>
       </c>
-      <c r="F34" s="95"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="176" t="e">
+      <c r="B35" s="103"/>
+      <c r="C35" s="175" t="e">
         <f>'SFR ANALYSIS'!C78</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D35" s="179" t="e">
+      <c r="D35" s="178" t="e">
         <f>C35/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="105">
+      <c r="E35" s="104">
         <f>'SFR ANALYSIS'!B78</f>
         <v>0.03</v>
       </c>
-      <c r="F35" s="101"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="175">
+      <c r="B36" s="108"/>
+      <c r="C36" s="174">
         <f>'SFR ANALYSIS'!B81</f>
         <v>15000</v>
       </c>
-      <c r="D36" s="178">
+      <c r="D36" s="177">
         <f>C36/C23</f>
         <v>7.6687116564417179</v>
       </c>
-      <c r="E36" s="196"/>
-      <c r="F36" s="235"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="234"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
     </row>
     <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="238" t="s">
+      <c r="A37" s="237" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="239"/>
-      <c r="C37" s="240" t="e">
+      <c r="B37" s="238"/>
+      <c r="C37" s="239" t="e">
         <f>'SFR ANALYSIS'!B84</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D37" s="241" t="e">
+      <c r="D37" s="240" t="e">
         <f>SUM(D32:D36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="242"/>
-      <c r="F37" s="243"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
+      <c r="E37" s="241"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
     </row>
     <row r="38" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
     </row>
     <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="283" t="s">
+      <c r="A39" s="282" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="197"/>
-      <c r="C39" s="245" t="s">
+      <c r="B39" s="196"/>
+      <c r="C39" s="244" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="111" t="s">
+      <c r="D39" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="284" t="s">
+      <c r="E39" s="283" t="s">
         <v>110</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A40" s="112" t="s">
+      <c r="A40" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="232"/>
-      <c r="C40" s="180" t="e">
+      <c r="B40" s="231"/>
+      <c r="C40" s="179" t="e">
         <f>'SFR ANALYSIS'!B100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="181">
+      <c r="D40" s="180">
         <f>C22</f>
         <v>3</v>
       </c>
-      <c r="E40" s="198"/>
-      <c r="F40" s="237"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
+      <c r="E40" s="197"/>
+      <c r="F40" s="236"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A41" s="113" t="s">
+      <c r="A41" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="199"/>
-      <c r="C41" s="182" t="e">
+      <c r="B41" s="198"/>
+      <c r="C41" s="181" t="e">
         <f>'SFR ANALYSIS'!B101</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D41" s="183" t="e">
+      <c r="D41" s="182" t="e">
         <f>D37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="195"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A42" s="137" t="s">
+      <c r="A42" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="200"/>
-      <c r="C42" s="180" t="e">
+      <c r="B42" s="199"/>
+      <c r="C42" s="179" t="e">
         <f>'SFR ANALYSIS'!B82</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D42" s="191" t="e">
+      <c r="D42" s="190" t="e">
         <f>C42/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="198"/>
-      <c r="F42" s="237"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="236"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A43" s="186" t="s">
+      <c r="A43" s="185" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="189"/>
-      <c r="C43" s="187" t="e">
+      <c r="B43" s="188"/>
+      <c r="C43" s="186" t="e">
         <f>SUM(C41:C42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D43" s="188" t="e">
+      <c r="D43" s="187" t="e">
         <f>C43/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="195"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="231"/>
-      <c r="B44" s="190"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="192"/>
-      <c r="E44" s="201"/>
-      <c r="F44" s="236"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
+      <c r="A44" s="230"/>
+      <c r="B44" s="189"/>
+      <c r="C44" s="191"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="235"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.15">
-      <c r="A45" s="387" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="388"/>
-      <c r="C45" s="388"/>
-      <c r="D45" s="389"/>
-      <c r="E45" s="365">
+      <c r="A45" s="402" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="403"/>
+      <c r="C45" s="403"/>
+      <c r="D45" s="404"/>
+      <c r="E45" s="364">
         <f>'SFR ANALYSIS'!B79</f>
         <v>0.1</v>
       </c>
-      <c r="F45" s="366" t="e">
+      <c r="F45" s="365" t="e">
         <f>'SFR ANALYSIS'!C79</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
     </row>
     <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="352" t="s">
+      <c r="A46" s="351" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="292"/>
+      <c r="B46" s="291"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="294"/>
+      <c r="E46" s="293"/>
       <c r="F46" s="3"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="293"/>
-      <c r="B47" s="292"/>
+      <c r="A47" s="292"/>
+      <c r="B47" s="291"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="294"/>
+      <c r="E47" s="293"/>
       <c r="F47" s="3"/>
       <c r="G47"/>
     </row>
@@ -7285,6 +7206,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -7295,14 +7224,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
